--- a/data/input/absenteeism_data_44.xlsx
+++ b/data/input/absenteeism_data_44.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11558</v>
+        <v>6834</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yago Almeida</t>
+          <t>Esther Dias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>6361.6</v>
+        <v>4261.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>87120</v>
+        <v>45718</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vitor Cardoso</t>
+          <t>Valentina da Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>6482.56</v>
+        <v>5247.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>84523</v>
+        <v>91226</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gustavo Henrique da Cruz</t>
+          <t>Sra. Ana Carolina Barros</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45104</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>10370.35</v>
+        <v>12402.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>49219</v>
+        <v>88511</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Davi Lucca Cardoso</t>
+          <t>Leandro Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,26 +577,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45099</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>6414.1</v>
+        <v>4826.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4579</v>
+        <v>36614</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sra. Alana Pires</t>
+          <t>Mariana Oliveira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,26 +606,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45095</v>
       </c>
       <c r="G6" t="n">
-        <v>4154.31</v>
+        <v>6457.44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>44167</v>
+        <v>76471</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rafaela Novaes</t>
+          <t>Luiz Felipe Barros</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45102</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>6359.98</v>
+        <v>8412.07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>30228</v>
+        <v>82385</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Lívia Pinto</t>
+          <t>Lucas Gabriel Fogaça</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>7590.04</v>
+        <v>8695.889999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>58048</v>
+        <v>85586</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Melissa Ferreira</t>
+          <t>Maria Vitória Cardoso</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>5969.13</v>
+        <v>5869.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18808</v>
+        <v>17092</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luna Lima</t>
+          <t>Vicente Silveira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45086</v>
+        <v>45102</v>
       </c>
       <c r="G10" t="n">
-        <v>9314.379999999999</v>
+        <v>4069.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>33608</v>
+        <v>31701</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiz Felipe Jesus</t>
+          <t>Ana Carolina Carvalho</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>2938.09</v>
+        <v>10903.49</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_44.xlsx
+++ b/data/input/absenteeism_data_44.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6834</v>
+        <v>52084</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esther Dias</t>
+          <t>Valentina Nunes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>4261.91</v>
+        <v>7218.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45718</v>
+        <v>34291</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Valentina da Rocha</t>
+          <t>Dr. Heitor Melo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,85 +523,85 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>5247.85</v>
+        <v>10561.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91226</v>
+        <v>18282</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sra. Ana Carolina Barros</t>
+          <t>Diego Freitas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>12402.8</v>
+        <v>2620.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>88511</v>
+        <v>83712</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Leandro Cunha</t>
+          <t>Miguel Lima</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>4826.17</v>
+        <v>3679.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36614</v>
+        <v>20546</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mariana Oliveira</t>
+          <t>Luiza Barros</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45095</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>6457.44</v>
+        <v>5731.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>76471</v>
+        <v>43625</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Felipe Barros</t>
+          <t>Marcela da Mota</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>8412.07</v>
+        <v>9660.969999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>82385</v>
+        <v>31380</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Fogaça</t>
+          <t>Emilly Moraes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45106</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>8695.889999999999</v>
+        <v>8807.790000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>85586</v>
+        <v>77637</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maria Vitória Cardoso</t>
+          <t>Dr. Anthony Sales</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45079</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>5869.25</v>
+        <v>10933.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17092</v>
+        <v>28604</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vicente Silveira</t>
+          <t>Dr. Thiago da Paz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45102</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>4069.38</v>
+        <v>10800.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31701</v>
+        <v>4615</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Carolina Carvalho</t>
+          <t>Yasmin Silva</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45087</v>
       </c>
       <c r="G11" t="n">
-        <v>10903.49</v>
+        <v>8710.77</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_44.xlsx
+++ b/data/input/absenteeism_data_44.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>52084</v>
+        <v>58264</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Valentina Nunes</t>
+          <t>Maysa Cavalcanti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,85 +494,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>7218.02</v>
+        <v>7729.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>34291</v>
+        <v>58608</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Heitor Melo</t>
+          <t>Ana Beatriz Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>10561.49</v>
+        <v>10156.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18282</v>
+        <v>4959</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diego Freitas</t>
+          <t>Leonardo Aragão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45079</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>2620.45</v>
+        <v>4846.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>83712</v>
+        <v>51532</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Miguel Lima</t>
+          <t>Lorenzo Freitas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>3679.58</v>
+        <v>9299.809999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20546</v>
+        <v>32104</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luiza Barros</t>
+          <t>Isaac Mendes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>5731.52</v>
+        <v>5728.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43625</v>
+        <v>20361</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marcela da Mota</t>
+          <t>Ryan da Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45093</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>9660.969999999999</v>
+        <v>4120.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31380</v>
+        <v>39710</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Emilly Moraes</t>
+          <t>Stephany da Rosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>8807.790000000001</v>
+        <v>11774.92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>77637</v>
+        <v>50037</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Anthony Sales</t>
+          <t>Dra. Isadora da Mota</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45105</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>10933.94</v>
+        <v>6871.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28604</v>
+        <v>64746</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Thiago da Paz</t>
+          <t>Vitor Hugo Rocha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>10800.83</v>
+        <v>5261.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4615</v>
+        <v>37779</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Yasmin Silva</t>
+          <t>Theo Campos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>8710.77</v>
+        <v>5301.58</v>
       </c>
     </row>
   </sheetData>
